--- a/docs/Resources/Guides/Payeezy/Customer_Transaction_Record_Creation.xlsx
+++ b/docs/Resources/Guides/Payeezy/Customer_Transaction_Record_Creation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchxk57\Documents\Merchant Migration Playbook Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{189EB46C-8762-484B-941C-E942F8A1D50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A706FAE1-9760-477C-A670-613DAF23647F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-615" yWindow="-19380" windowWidth="34935" windowHeight="17805" xr2:uid="{118321A8-3856-470B-AC5A-E2D976168E00}"/>
+    <workbookView xWindow="9225" yWindow="-19920" windowWidth="23670" windowHeight="17805" xr2:uid="{118321A8-3856-470B-AC5A-E2D976168E00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>========================================&lt;/CTR&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">40 equal symbols  </t>
-  </si>
-  <si>
     <t>TYPE: + 
 if charges endpoint and transactionDetails.captureFlag = true, then "Purchase"
 if charges endpoint and transactionDetails.captureFlag = false, then "Pre - Authorization"
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>Commerece Hub Elements</t>
+  </si>
+  <si>
+    <t>40 equal symbols  + &lt;/CTR&gt;</t>
   </si>
 </sst>
 </file>
@@ -688,7 +688,7 @@
   <dimension ref="B2:C20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -701,10 +701,10 @@
   <sheetData>
     <row r="2" spans="2:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
@@ -752,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
@@ -848,7 +848,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -865,7 +865,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E764D1F-B9DC-4F00-AA55-B69BDDB0E6AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF86D580-3379-47B3-A942-C5010D2C0559}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
